--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem5/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem5/67/word_level_predictions_67.xlsx
@@ -866,468 +866,468 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Disabled</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Landing</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="I12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>gear</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I13" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>lowered</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>8</v>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="D16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Disabled</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I17" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Disabled</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>9</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Landing</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>10</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>gear</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>11</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>lowered</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>12</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>13</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>14</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Disabled</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>15</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -5546,210 +5546,210 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
+      <c r="A99" t="n">
         <v>4</v>
       </c>
-      <c r="B99" s="2" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C99" s="2" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D99" s="2" t="n">
+      <c r="D99" t="n">
         <v>5</v>
       </c>
-      <c r="E99" s="2" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F99" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G99" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I99" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J99" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K99" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L99" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I99" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K99" t="b">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
+      <c r="A100" t="n">
         <v>4</v>
       </c>
-      <c r="B100" s="2" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C100" s="2" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D100" s="2" t="n">
+      <c r="D100" t="n">
         <v>6</v>
       </c>
-      <c r="E100" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F100" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G100" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I100" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J100" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K100" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L100" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I100" t="b">
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K100" t="b">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
+      <c r="A101" t="n">
         <v>4</v>
       </c>
-      <c r="B101" s="2" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C101" s="2" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D101" s="2" t="n">
+      <c r="D101" t="n">
         <v>7</v>
       </c>
-      <c r="E101" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F101" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G101" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I101" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J101" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K101" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L101" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I101" t="b">
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K101" t="b">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
+      <c r="A102" t="n">
         <v>4</v>
       </c>
-      <c r="B102" s="2" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C102" s="2" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D102" s="2" t="n">
+      <c r="D102" t="n">
         <v>8</v>
       </c>
-      <c r="E102" s="2" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F102" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G102" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I102" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J102" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K102" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L102" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G102" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I102" t="b">
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K102" t="b">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6869,7 +6869,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G124" t="b">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_E</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G125" t="b">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7678,106 +7678,106 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n">
+      <c r="A140" t="n">
         <v>6</v>
       </c>
-      <c r="B140" s="2" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C140" s="2" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D140" s="2" t="n">
+      <c r="D140" t="n">
         <v>0</v>
       </c>
-      <c r="E140" s="2" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F140" s="2" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G140" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" s="2" t="inlineStr">
+      <c r="G140" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L140" s="2" t="inlineStr">
+      <c r="I140" t="b">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n">
+      <c r="A141" t="n">
         <v>6</v>
       </c>
-      <c r="B141" s="2" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C141" s="2" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>abnormal</t>
         </is>
       </c>
-      <c r="D141" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E141" s="2" t="inlineStr">
+      <c r="D141" t="n">
+        <v>1</v>
+      </c>
+      <c r="E141" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F141" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G141" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" s="2" t="inlineStr">
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L141" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem5/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem5/67/word_level_predictions_67.xlsx
@@ -866,468 +866,468 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" t="n">
         <v>0</v>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" t="n">
         <v>7</v>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="b">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="b">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>0</v>
       </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Disabled</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>0</v>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Landing</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>gear</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>lowered</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="b">
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Disabled</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>Landing</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>gear</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>lowered</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>Disabled</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -5546,210 +5546,210 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
+      <c r="A99" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C99" s="2" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D99" t="n">
+      <c r="D99" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="E99" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G99" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I99" t="b">
-        <v>1</v>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K99" t="b">
-        <v>1</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F99" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G99" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I99" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K99" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L99" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
+      <c r="A100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C100" s="2" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D100" t="n">
+      <c r="D100" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G100" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I100" t="b">
-        <v>1</v>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K100" t="b">
-        <v>1</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G100" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I100" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J100" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K100" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L100" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
+      <c r="A101" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C101" s="2" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D101" t="n">
+      <c r="D101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I101" t="b">
-        <v>1</v>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K101" t="b">
-        <v>1</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E101" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G101" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I101" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J101" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K101" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L101" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
+      <c r="A102" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C102" s="2" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D102" t="n">
+      <c r="D102" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="E102" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G102" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I102" t="b">
-        <v>1</v>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K102" t="b">
-        <v>1</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G102" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I102" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J102" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K102" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L102" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -6869,7 +6869,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G124" t="b">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G125" t="b">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -7678,106 +7678,106 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
+      <c r="A140" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B140" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C140" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D140" t="n">
+      <c r="D140" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="E140" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="F140" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G140" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I140" t="b">
-        <v>1</v>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K140" t="b">
-        <v>1</v>
-      </c>
-      <c r="L140" t="inlineStr">
+      <c r="G140" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J140" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
+      <c r="A141" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B141" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C141" s="2" t="inlineStr">
         <is>
           <t>abnormal</t>
         </is>
       </c>
-      <c r="D141" t="n">
-        <v>1</v>
-      </c>
-      <c r="E141" t="inlineStr">
+      <c r="D141" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E141" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G141" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I141" t="b">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K141" t="b">
-        <v>1</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F141" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G141" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J141" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
